--- a/TMTDentalAPI/ClientApp/src/assets/files/File_mau_the_uu_dai_dich_vu.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/File_mau_the_uu_dai_dich_vu.xlsx
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
